--- a/my_parser/sources/URLs.xlsx
+++ b/my_parser/sources/URLs.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20417"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15F5B4E1-0BE8-4EF8-9309-53FE7E689C2E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20689561-C4E8-4513-AFB3-7182D1114DDE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="10635" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -8394,7 +8394,7 @@
   <dimension ref="A1:B2525"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -28622,7 +28622,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
